--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-masking-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="81">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,93 +49,93 @@
     <t>thin</t>
   </si>
   <si>
+    <t>ripped</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>however</t>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>smaller</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>smaller</t>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>small</t>
   </si>
   <si>
     <t>instead</t>
   </si>
   <si>
-    <t>small</t>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>plastic</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>short</t>
+    <t>pay</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>paint</t>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
   <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
     <t>would</t>
   </si>
   <si>
@@ -145,69 +145,60 @@
     <t>better</t>
   </si>
   <si>
+    <t>work</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>hard</t>
+    <t>used</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>use</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>much</t>
+    <t>toy</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>wonderful</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>awesome</t>
+    <t>favorite</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>favorite</t>
-  </si>
-  <si>
     <t>classic</t>
   </si>
   <si>
@@ -223,46 +214,43 @@
     <t>great</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>learn</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
     <t>christmas</t>
   </si>
   <si>
     <t>enjoyed</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
     <t>game</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>family</t>
   </si>
   <si>
     <t>play</t>
@@ -626,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -634,10 +622,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -695,13 +683,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9347826086956522</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="C3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -713,19 +701,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K3">
-        <v>0.8928571428571429</v>
+        <v>0.875</v>
       </c>
       <c r="L3">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M3">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -737,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -745,13 +733,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -763,19 +751,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K4">
-        <v>0.8518518518518519</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -787,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -795,13 +783,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7931034482758621</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -813,19 +801,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K5">
-        <v>0.8307692307692308</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -837,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -845,13 +833,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7368421052631579</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -863,19 +851,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K6">
-        <v>0.8125</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="L6">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="M6">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -887,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -895,13 +883,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7183098591549296</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="C7">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -913,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K7">
-        <v>0.8064516129032258</v>
+        <v>0.734375</v>
       </c>
       <c r="L7">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="M7">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -937,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -945,13 +933,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6875</v>
+        <v>0.671875</v>
       </c>
       <c r="C8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -963,19 +951,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K8">
-        <v>0.6792452830188679</v>
+        <v>0.6415094339622641</v>
       </c>
       <c r="L8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -987,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -995,13 +983,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6727272727272727</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C9">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1013,19 +1001,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K9">
-        <v>0.5509325681492109</v>
+        <v>0.5681492109038737</v>
       </c>
       <c r="L9">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="M9">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1037,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>313</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1045,13 +1033,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6621621621621622</v>
+        <v>0.6397849462365591</v>
       </c>
       <c r="C10">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="D10">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1063,10 +1051,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K10">
         <v>0.5217391304347826</v>
@@ -1095,13 +1083,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6559139784946236</v>
+        <v>0.6262135922330098</v>
       </c>
       <c r="C11">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D11">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1113,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="H11">
+        <v>77</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="K11">
-        <v>0.4813278008298755</v>
+        <v>0.4937759336099585</v>
       </c>
       <c r="L11">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="M11">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1137,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1145,13 +1133,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6285714285714286</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1163,19 +1151,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K12">
-        <v>0.4377049180327869</v>
+        <v>0.4409836065573771</v>
       </c>
       <c r="L12">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="M12">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1187,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1195,13 +1183,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6285714285714286</v>
+        <v>0.5878378378378378</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="D13">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1213,19 +1201,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K13">
-        <v>0.382262996941896</v>
+        <v>0.3373493975903614</v>
       </c>
       <c r="L13">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="M13">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1237,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>202</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1245,13 +1233,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5825242718446602</v>
+        <v>0.5546218487394958</v>
       </c>
       <c r="C14">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="D14">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1263,19 +1251,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K14">
-        <v>0.325</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L14">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M14">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1287,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1295,13 +1283,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5714285714285714</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C15">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1313,19 +1301,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K15">
-        <v>0.3227513227513227</v>
+        <v>0.3211009174311927</v>
       </c>
       <c r="L15">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="M15">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1337,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>128</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1345,13 +1333,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5378151260504201</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C16">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="D16">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1363,19 +1351,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K16">
-        <v>0.3192771084337349</v>
+        <v>0.3068783068783069</v>
       </c>
       <c r="L16">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="M16">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1387,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>113</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1395,13 +1383,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="C17">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="D17">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1413,19 +1401,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>24</v>
+        <v>180</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K17">
-        <v>0.21875</v>
+        <v>0.2109375</v>
       </c>
       <c r="L17">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M17">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1437,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1445,13 +1433,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4869565217391305</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="C18">
-        <v>168</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>168</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1463,19 +1451,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K18">
-        <v>0.184</v>
+        <v>0.1927710843373494</v>
       </c>
       <c r="L18">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="M18">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1487,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>102</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1495,13 +1483,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4578313253012048</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C19">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D19">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1513,19 +1501,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K19">
-        <v>0.1807228915662651</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="L19">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="M19">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1537,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>204</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1545,13 +1533,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4489795918367347</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D20">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1563,19 +1551,19 @@
         <v>0</v>
       </c>
       <c r="H20">
+        <v>31</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K20">
+        <v>0.1888111888111888</v>
+      </c>
+      <c r="L20">
         <v>27</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K20">
-        <v>0.1746031746031746</v>
-      </c>
-      <c r="L20">
-        <v>22</v>
-      </c>
       <c r="M20">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1587,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1595,13 +1583,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4075829383886256</v>
+        <v>0.421875</v>
       </c>
       <c r="C21">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="D21">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1613,19 +1601,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K21">
-        <v>0.1720430107526882</v>
+        <v>0.1774193548387097</v>
       </c>
       <c r="L21">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M21">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1637,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1645,13 +1633,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4074074074074074</v>
+        <v>0.3858267716535433</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D22">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1663,19 +1651,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K22">
-        <v>0.1678321678321678</v>
+        <v>0.1516213847502191</v>
       </c>
       <c r="L22">
-        <v>24</v>
+        <v>173</v>
       </c>
       <c r="M22">
-        <v>24</v>
+        <v>173</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1687,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>119</v>
+        <v>968</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1695,13 +1683,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4074074074074074</v>
+        <v>0.3734939759036144</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D23">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1713,19 +1701,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K23">
-        <v>0.1454864154250657</v>
+        <v>0.0947075208913649</v>
       </c>
       <c r="L23">
-        <v>166</v>
+        <v>34</v>
       </c>
       <c r="M23">
-        <v>166</v>
+        <v>34</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1737,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>975</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1745,13 +1733,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3968253968253968</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="C24">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D24">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1763,31 +1751,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K24">
-        <v>0.08122157244964262</v>
+        <v>0.08288770053475936</v>
       </c>
       <c r="L24">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="M24">
-        <v>127</v>
+        <v>31</v>
       </c>
       <c r="N24">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1414</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1795,13 +1783,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3707865168539326</v>
+        <v>0.3507109004739337</v>
       </c>
       <c r="C25">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="D25">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1813,31 +1801,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K25">
-        <v>0.07754010695187166</v>
+        <v>0.07797270955165692</v>
       </c>
       <c r="L25">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="M25">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>345</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1845,13 +1833,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3684210526315789</v>
+        <v>0.3263157894736842</v>
       </c>
       <c r="C26">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D26">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1863,31 +1851,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K26">
-        <v>0.07520891364902507</v>
+        <v>0.04533333333333334</v>
       </c>
       <c r="L26">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M26">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>332</v>
+        <v>716</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1895,13 +1883,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3650793650793651</v>
+        <v>0.3203125</v>
       </c>
       <c r="C27">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D27">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1913,31 +1901,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>40</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K27">
-        <v>0.04005340453938585</v>
-      </c>
-      <c r="L27">
-        <v>30</v>
-      </c>
-      <c r="M27">
-        <v>33</v>
-      </c>
-      <c r="N27">
-        <v>0.91</v>
-      </c>
-      <c r="O27">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="P27" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q27">
-        <v>719</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1945,13 +1909,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.359375</v>
+        <v>0.3146067415730337</v>
       </c>
       <c r="C28">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D28">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1963,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>82</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1971,13 +1935,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3543307086614173</v>
+        <v>0.2871287128712871</v>
       </c>
       <c r="C29">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D29">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1989,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>82</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1997,13 +1961,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2871287128712871</v>
+        <v>0.2346938775510204</v>
       </c>
       <c r="C30">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="D30">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2015,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>144</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2023,13 +1987,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2371134020618557</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="C31">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D31">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2041,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>148</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2049,13 +2013,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2346938775510204</v>
+        <v>0.1920289855072464</v>
       </c>
       <c r="C32">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="D32">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2067,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>75</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2075,13 +2039,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2051282051282051</v>
+        <v>0.19</v>
       </c>
       <c r="C33">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D33">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2093,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>93</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2101,13 +2065,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1884057971014493</v>
+        <v>0.1855670103092784</v>
       </c>
       <c r="C34">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D34">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2119,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>224</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2127,13 +2091,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.162202380952381</v>
+        <v>0.1696428571428572</v>
       </c>
       <c r="C35">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D35">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E35">
         <v>0.02</v>
@@ -2145,7 +2109,7 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2153,13 +2117,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1580459770114943</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C36">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D36">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2171,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2205,25 +2169,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1487341772151899</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="C38">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D38">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2231,25 +2195,25 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1428571428571428</v>
+        <v>0.1329113924050633</v>
       </c>
       <c r="C39">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D39">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E39">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2257,7 +2221,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1401273885350318</v>
+        <v>0.1257142857142857</v>
       </c>
       <c r="C40">
         <v>22</v>
@@ -2275,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>135</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2283,25 +2247,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.135</v>
+        <v>0.1133603238866397</v>
       </c>
       <c r="C41">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D41">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>173</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2309,13 +2273,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1277533039647577</v>
+        <v>0.1086142322097378</v>
       </c>
       <c r="C42">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="D42">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2327,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>396</v>
+        <v>238</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2335,13 +2299,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1257142857142857</v>
+        <v>0.105726872246696</v>
       </c>
       <c r="C43">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D43">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2353,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>153</v>
+        <v>406</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2361,25 +2325,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1161048689138577</v>
+        <v>0.08241758241758242</v>
       </c>
       <c r="C44">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D44">
         <v>31</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>236</v>
+        <v>334</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2387,25 +2351,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.0975609756097561</v>
+        <v>0.078125</v>
       </c>
       <c r="C45">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D45">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E45">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="F45">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>222</v>
+        <v>413</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2413,25 +2377,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.0779510022271715</v>
+        <v>0.066006600660066</v>
       </c>
       <c r="C46">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D46">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>414</v>
+        <v>566</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2439,13 +2403,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.07123287671232877</v>
+        <v>0.06478873239436619</v>
       </c>
       <c r="C47">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D47">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2457,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2465,25 +2429,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.06589785831960461</v>
+        <v>0.03975535168195719</v>
       </c>
       <c r="C48">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D48">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E48">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="F48">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>567</v>
+        <v>628</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2491,103 +2455,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.06197183098591549</v>
+        <v>0.03934010152284264</v>
       </c>
       <c r="C49">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D49">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="G49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50">
-        <v>0.05568445475638051</v>
-      </c>
-      <c r="C50">
-        <v>24</v>
-      </c>
-      <c r="D50">
-        <v>27</v>
-      </c>
-      <c r="E50">
-        <v>0.11</v>
-      </c>
-      <c r="F50">
-        <v>0.89</v>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51">
-        <v>0.04974489795918367</v>
-      </c>
-      <c r="C51">
-        <v>39</v>
-      </c>
-      <c r="D51">
-        <v>49</v>
-      </c>
-      <c r="E51">
-        <v>0.2</v>
-      </c>
-      <c r="F51">
-        <v>0.8</v>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52">
-        <v>0.04754601226993865</v>
-      </c>
-      <c r="C52">
-        <v>31</v>
-      </c>
-      <c r="D52">
-        <v>34</v>
-      </c>
-      <c r="E52">
-        <v>0.09</v>
-      </c>
-      <c r="F52">
-        <v>0.91</v>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>621</v>
+        <v>757</v>
       </c>
     </row>
   </sheetData>
